--- a/matlab/experiment/AAA.xlsx
+++ b/matlab/experiment/AAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D991C-4FB0-49E2-8BF4-84B7B1659E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7008C2D-0070-4A78-88C0-E6C410788447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="7" xr2:uid="{6579F881-DCA7-4D1C-9278-A323B2636B4B}"/>
   </bookViews>
@@ -402,349 +402,349 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.41528035482153552</v>
+        <v>8.0743029976199643E-3</v>
       </c>
       <c r="B1">
-        <v>0.47884936927577071</v>
+        <v>0.48824287676555284</v>
       </c>
       <c r="C1">
-        <v>3.7752826645366999E-2</v>
+        <v>0.44938995040602175</v>
       </c>
       <c r="D1">
-        <v>0.47884936927577071</v>
+        <v>0.48824287676555284</v>
       </c>
       <c r="E1">
-        <v>0.41528035482153552</v>
+        <v>8.0743029976199643E-3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.41528035482153552</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B2">
-        <v>0.47884936927577071</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C2">
-        <v>3.7752826645366999E-2</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D2">
-        <v>0.47884936927577071</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E2">
-        <v>0.41528035482153552</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.43116960573966229</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B3">
-        <v>0.44820245173245576</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C3">
-        <v>9.4505277705580426E-2</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D3">
-        <v>0.44820245173245576</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E3">
-        <v>0.43116960573966229</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.43116960573966229</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B4">
-        <v>0.44820245173245576</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C4">
-        <v>0.24894667481335586</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D4">
-        <v>0.44820245173245576</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E4">
-        <v>0.43116960573966229</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.46500000000000002</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B5">
-        <v>0.245</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C5">
-        <v>0.29599999999999999</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D5">
-        <v>0.245</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E5">
-        <v>0.46500000000000002</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B6">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C6">
-        <v>0.47511102441917746</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D6">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E6">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B7">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C7">
-        <v>0.47511102441917746</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D7">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E7">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B8">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C8">
-        <v>0.47511102441917746</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D8">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E8">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B9">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C9">
-        <v>0.47511102441917746</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D9">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E9">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B10">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C10">
-        <v>0.47511102441917746</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D10">
-        <v>0.15854974003043026</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E10">
-        <v>0.34741431148790852</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.34399999999999997</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B11">
-        <v>0.183</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C11">
-        <v>0.45700000000000002</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D11">
-        <v>0.183</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E11">
-        <v>0.34399999999999997</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.34100000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B12">
-        <v>0.20699999999999999</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C12">
-        <v>0.438</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D12">
-        <v>0.20699999999999999</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E12">
-        <v>0.34100000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.34100000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B13">
-        <v>0.20699999999999999</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C13">
-        <v>0.438</v>
+        <v>0.38282529917197783</v>
       </c>
       <c r="D13">
-        <v>0.20699999999999999</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E13">
-        <v>0.34100000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B14">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C14">
-        <v>0.47499999999999998</v>
+        <v>0.38282529917197783</v>
       </c>
       <c r="D14">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E14">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B15">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C15">
-        <v>0.47499999999999998</v>
+        <v>0.38282529917197783</v>
       </c>
       <c r="D15">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E15">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B16">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C16">
-        <v>0.47499999999999998</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D16">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E16">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B17">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C17">
-        <v>0.47499999999999998</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D17">
-        <v>0.159</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E17">
-        <v>0.34699999999999998</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.34300000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
       <c r="B18">
-        <v>0.19500000000000001</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="C18">
-        <v>0.44800000000000001</v>
+        <v>0.31994925369076793</v>
       </c>
       <c r="D18">
-        <v>0.19500000000000001</v>
+        <v>0.34302964910934503</v>
       </c>
       <c r="E18">
-        <v>0.34300000000000003</v>
+        <v>0.99710832334323529</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>0.997</v>
+      </c>
+      <c r="B19">
         <v>0.34300000000000003</v>
       </c>
-      <c r="B19">
-        <v>0.19500000000000001</v>
-      </c>
       <c r="C19">
-        <v>0.44800000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D19">
-        <v>0.19500000000000001</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E19">
-        <v>0.34300000000000003</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.34100000000000003</v>
+        <v>0.997</v>
       </c>
       <c r="B20">
-        <v>0.20699999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="C20">
-        <v>0.438</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D20">
-        <v>0.20699999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="E20">
-        <v>0.34100000000000003</v>
+        <v>0.997</v>
       </c>
     </row>
   </sheetData>
@@ -757,409 +757,409 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B1">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="C1">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D1">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E1">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F1">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="E2">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="F2">
-        <v>215</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>351</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="F3">
-        <v>269</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="B4">
-        <v>339</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>351</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="F4">
-        <v>269</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>184.2</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>297.8</v>
+        <v>104</v>
       </c>
       <c r="C5">
-        <v>152.19999999999999</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>191.2</v>
+        <v>335</v>
       </c>
       <c r="E5">
-        <v>146.9</v>
+        <v>195</v>
       </c>
       <c r="F5">
-        <v>115.8</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B6">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E6">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F6">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C7">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E7">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F7">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E8">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F8">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C9">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E9">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F9">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E10">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F10">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B11">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C11">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E11">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F11">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B12">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E12">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F12">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E13">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F13">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B14">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E14">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E15">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F15">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="E16">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F16">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B17">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C17">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E17">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F17">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C18">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E18">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F18">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C19">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E19">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F19">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="C20">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E20">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="F20">
-        <v>67</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>0.79810673243827368</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0.79810673243827368</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>0.52400000000000002</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E12">
-        <v>0.873</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1422,16 +1422,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.52400000000000002</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E13">
-        <v>0.873</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1442,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.64300000000000002</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E14">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1462,16 +1462,16 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>0.64300000000000002</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="E15">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="B16">
-        <v>0.64300000000000002</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="E16">
-        <v>0.90500000000000003</v>
+        <v>0.99</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1499,19 +1499,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>0.871</v>
       </c>
       <c r="B17">
-        <v>0.64300000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="E17">
-        <v>0.90500000000000003</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1519,19 +1519,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="B18">
-        <v>0.64300000000000002</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E18">
-        <v>0.81599999999999995</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1539,19 +1539,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="B19">
-        <v>0.64300000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E19">
-        <v>0.81599999999999995</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1559,19 +1559,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="B20">
-        <v>0.64800000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="C20">
-        <v>0.99399999999999999</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D20">
-        <v>0.98199999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="E20">
-        <v>0.80700000000000005</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1587,109 +1587,109 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1702,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,47 +1714,47 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7.012977415550262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-2.39390825957982</v>
+        <v>8.0940096623571272</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-1.5660094651177707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>8.0940096623571272</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.2279489195006041</v>
+        <v>8.0940096623571272</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7.2279489195006041</v>
+        <v>8.0940096623571272</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7.2279489195006041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>8.0237430057324843</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7.2279489195006041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1769,27 +1769,27 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7.4130337663998649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>8.3406706942058317</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7.3848756627842</v>
+        <v>8.3406706942058317</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7.3848756627842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7.3848756627842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1799,12 +1799,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7.4825551629961549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
+        <v>8.4291938661840433</v>
       </c>
     </row>
   </sheetData>
@@ -1817,109 +1817,109 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-2.2135004246892658</v>
+        <v>-2.3117514795403817</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-2.2135004246892658</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-0.62835290277990297</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-0.71752519577955287</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-0.7575902455756085</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-2.1160970162166675</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-2.1160970162166675</v>
+        <v>-2.5539001920487632</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-2.1160970162166675</v>
+        <v>-2.5651126126209558</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-2.1160970162166675</v>
+        <v>-2.5651126126209558</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-2.1160970162166675</v>
+        <v>-2.5707657231275589</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-2.1249937551828952</v>
+        <v>-2.5726063430858597</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-2.3071649137434163</v>
+        <v>-2.6730507300525206</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-2.3071649137434163</v>
+        <v>-2.6969582268263261</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-2.3478482871571185</v>
+        <v>-2.6969582268263261</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-2.3478482871571185</v>
+        <v>-2.6969582268263261</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-2.3478482871571185</v>
+        <v>-2.6889100265558028</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-2.3478482871571185</v>
+        <v>-2.7183881188255321</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-2.3478729538861836</v>
+        <v>-2.7635908097798922</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-2.3478729538861836</v>
+        <v>-2.8083649203267971</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-2.3555908414018161</v>
+        <v>-2.8083649203267971</v>
       </c>
     </row>
   </sheetData>
@@ -1932,109 +1932,109 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>84.815157471922177</v>
+        <v>82.888267922678395</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>74.666705505338996</v>
+        <v>68.987410874673742</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>74.842911774305023</v>
+        <v>56.282905211387344</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>74.841581449450189</v>
+        <v>45.407903383235926</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>49.669061985857482</v>
+        <v>36.743642689803089</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>39.574143412672001</v>
+        <v>26.852267811946582</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>34.470532401519058</v>
+        <v>22.780756110946839</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9.319481626041819</v>
+        <v>22.18759204072586</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.867003784812856</v>
+        <v>24.971275802166957</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>13.643418610911421</v>
+        <v>20.489496602768099</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>33.80861964265479</v>
+        <v>15.407601774445402</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>18.586832752375233</v>
+        <v>21.669642948849599</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-1.7682174149213459</v>
+        <v>20.464679549610572</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-2.1211977764212664</v>
+        <v>15.381141144089916</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-2.2407928122264336</v>
+        <v>14.933223608930684</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.8192723993139284</v>
+        <v>17.485129207427722</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-2.3069602581714794</v>
+        <v>18.251643251073531</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2.8829667855139594</v>
+        <v>19.42432415196911</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2.7979849629397724</v>
+        <v>23.071939141898397</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>7.8994017980061475</v>
+        <v>19.992467188122909</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/experiment/AAA.xlsx
+++ b/matlab/experiment/AAA.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7008C2D-0070-4A78-88C0-E6C410788447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFADB61-A1C0-47A6-81CC-C76295541754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="7" xr2:uid="{6579F881-DCA7-4D1C-9278-A323B2636B4B}"/>
+    <workbookView xWindow="1068" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="6" xr2:uid="{FF1F7304-72E6-4954-9E06-664F49AFCC92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Spacing" sheetId="2" r:id="rId2"/>
     <sheet name="Phase" sheetId="3" r:id="rId3"/>
     <sheet name="Amplitude" sheetId="4" r:id="rId4"/>
-    <sheet name="HPBW" sheetId="5" r:id="rId5"/>
-    <sheet name="Gain" sheetId="6" r:id="rId6"/>
-    <sheet name="Fitness" sheetId="7" r:id="rId7"/>
-    <sheet name="Pop fit" sheetId="8" r:id="rId8"/>
+    <sheet name="Gain" sheetId="5" r:id="rId5"/>
+    <sheet name="Fitness" sheetId="6" r:id="rId6"/>
+    <sheet name="Pop fit" sheetId="7" r:id="rId7"/>
+    <sheet name="HPBW" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E3843B-5181-4289-B72F-C68FF114D9F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAFFFF1-6BAC-416D-AC5F-506E3BF3A780}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F1DD8-3F6D-4CF3-BC01-1FEBDE98E500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DBFDF6-58AD-4004-AB87-47B9C950D3F4}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -409,342 +409,342 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>8.0743029976199643E-3</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0.48824287676555284</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0.44938995040602175</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0.48824287676555284</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>8.0743029976199643E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.99710832334323529</v>
+        <v>0.85570709053925209</v>
       </c>
       <c r="B3">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.99710832334323529</v>
+        <v>0.85570709053925209</v>
       </c>
       <c r="B4">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.99710832334323529</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="B5">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.99710832334323529</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="B6">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.99710832334323529</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="B7">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.31994925369076793</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.99710832334323529</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="B8">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.31994925369076793</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D8">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.99710832334323529</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="B9">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.31994925369076793</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D9">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.99710832334323529</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="B10">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.31994925369076793</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D10">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.99710832334323529</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="B11">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.31994925369076793</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D11">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.99710832334323529</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="B12">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.31994925369076793</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D12">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.99710832334323529</v>
+        <v>0.85</v>
       </c>
       <c r="B13">
-        <v>0.34302964910934503</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="C13">
-        <v>0.38282529917197783</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D13">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.99710832334323529</v>
+        <v>0.96699999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.99710832334323529</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="B14">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.38282529917197783</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="D14">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.99710832334323529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0.99710832334323529</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B15">
-        <v>0.34302964910934503</v>
+        <v>0.872</v>
       </c>
       <c r="C15">
-        <v>0.38282529917197783</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D15">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.99710832334323529</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.99710832334323529</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B16">
-        <v>0.34302964910934503</v>
+        <v>0.872</v>
       </c>
       <c r="C16">
-        <v>0.31994925369076793</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D16">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0.99710832334323529</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.99710832334323529</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B17">
-        <v>0.34302964910934503</v>
+        <v>0.872</v>
       </c>
       <c r="C17">
-        <v>0.31994925369076793</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D17">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.99710832334323529</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.99710832334323529</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B18">
-        <v>0.34302964910934503</v>
+        <v>0.872</v>
       </c>
       <c r="C18">
-        <v>0.31994925369076793</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D18">
-        <v>0.34302964910934503</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.99710832334323529</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B19">
-        <v>0.34300000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="C19">
-        <v>0.35099999999999998</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D19">
-        <v>0.34300000000000003</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.997</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B20">
-        <v>0.34300000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="C20">
-        <v>0.35099999999999998</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="D20">
-        <v>0.34300000000000003</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.997</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E99E35-BAC5-4D0E-A49D-DAA4E06B6809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DFDB0C-38F4-4876-80D8-F39624AE3E49}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -764,402 +764,402 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B1">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="C1">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D1">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="E1">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="F1">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>71</v>
       </c>
       <c r="D2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E2">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F2">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C3">
         <v>71</v>
       </c>
       <c r="D3">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E3">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F3">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>71</v>
       </c>
       <c r="D4">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E4">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C5">
         <v>71</v>
       </c>
       <c r="D5">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E5">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F5">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>335</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="F6">
-        <v>343</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C7">
         <v>71</v>
       </c>
       <c r="D7">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E7">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F7">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C8">
         <v>71</v>
       </c>
       <c r="D8">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E8">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F8">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B9">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C9">
         <v>71</v>
       </c>
       <c r="D9">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E9">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F9">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C10">
         <v>71</v>
       </c>
       <c r="D10">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E10">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F10">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C11">
         <v>71</v>
       </c>
       <c r="D11">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E11">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F11">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C12">
         <v>71</v>
       </c>
       <c r="D12">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E12">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F12">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C13">
         <v>71</v>
       </c>
       <c r="D13">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E13">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F13">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B14">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C14">
         <v>71</v>
       </c>
       <c r="D14">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E14">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F14">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C15">
         <v>71</v>
       </c>
       <c r="D15">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E15">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F15">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C16">
         <v>71</v>
       </c>
       <c r="D16">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="E16">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F16">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C17">
         <v>71</v>
       </c>
       <c r="D17">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E17">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F17">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C18">
         <v>71</v>
       </c>
       <c r="D18">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E18">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F18">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C19">
         <v>71</v>
       </c>
       <c r="D19">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E19">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F19">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="C20">
         <v>71</v>
       </c>
       <c r="D20">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E20">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="F20">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9538AD2D-492E-4E9D-825D-A1ED85F80FA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACF7B38-D19F-4827-AE18-DB3E0C8298EE}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1319,7 +1319,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.79810673243827368</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.79810673243827368</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.97199999999999998</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.95899999999999996</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1385,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.88700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.93899999999999995</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.85299999999999998</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.88700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.93899999999999995</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1445,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.88700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.93899999999999995</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.88700000000000001</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.93899999999999995</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1479,19 +1479,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0.98699999999999999</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.48799999999999999</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.89800000000000002</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1499,19 +1499,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.871</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.89700000000000002</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.48799999999999999</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.96499999999999997</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1519,19 +1519,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.93600000000000005</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.94199999999999995</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.70199999999999996</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.99099999999999999</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.95399999999999996</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1539,19 +1539,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.93799999999999994</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.92300000000000004</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1559,19 +1559,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.93799999999999994</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.92300000000000004</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1583,122 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B42F212-F176-4649-A23E-36E6EA00E08A}">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA2FFF2-095E-4964-B0E9-AC115DC9A077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC53BF-FB0A-43F3-85A5-FDC62A129260}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1714,32 +1599,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>6.9732387999703471</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>8.0940096623571272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>7.1011562468595386</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8.0940096623571272</v>
+        <v>7.0002189821776177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>8.0940096623571272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8.0940096623571272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -1749,12 +1634,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8.0237430057324843</v>
+        <v>8.8610952165857881</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>8.8610952165857881</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1764,7 +1649,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
+        <v>8.8610952165857881</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -1774,27 +1659,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>8.3406706942058317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8.3406706942058317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>0</v>
+        <v>9.7253079264535334</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0</v>
+        <v>9.7253079264535334</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>9.7253079264535334</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1804,7 +1689,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>8.4291938661840433</v>
+        <v>9.7253079264535334</v>
       </c>
     </row>
   </sheetData>
@@ -1812,8 +1697,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FAA63-181D-4991-8D53-D4106CCE15E3}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7F8496-B24E-4CAC-97EA-88E018D30019}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1824,102 +1709,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-2.3117514795403817</v>
+        <v>-0.71454726690709935</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-2.5539001920487632</v>
+        <v>-0.71454726690709935</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-2.5539001920487632</v>
+        <v>-0.79802431282512587</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-2.5539001920487632</v>
+        <v>-0.79802431282512587</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-2.5539001920487632</v>
+        <v>-0.75123720690672946</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-2.5539001920487632</v>
+        <v>-0.92822639572314525</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-2.5539001920487632</v>
+        <v>-1.0767617160529221</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>-2.5651126126209558</v>
+        <v>-1.2341243018142027</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-2.5651126126209558</v>
+        <v>-1.2341243018142027</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-2.5707657231275589</v>
+        <v>-1.2341243018142027</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-2.5726063430858597</v>
+        <v>-1.2341243018142027</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-2.6730507300525206</v>
+        <v>-1.2341243018142027</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-2.6969582268263261</v>
+        <v>-1.2517617412042501</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-2.6969582268263261</v>
+        <v>-1.2746203664743663</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-2.6969582268263261</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-2.6889100265558028</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-2.7183881188255321</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-2.7635908097798922</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-2.8083649203267971</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-2.8083649203267971</v>
+        <v>-1.3860927843567075</v>
       </c>
     </row>
   </sheetData>
@@ -1927,8 +1812,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9B99BE-7B17-4AE0-9D07-37410FFF7A1E}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC72BC-63AD-436C-B2F7-DE02C9D57268}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,102 +1824,457 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>82.888267922678395</v>
+        <v>-0.34154153407784643</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>68.987410874673742</v>
+        <v>-0.43222157747055417</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>56.282905211387344</v>
+        <v>-0.52591664321500675</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>45.407903383235926</v>
+        <v>-0.58823072768096774</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>36.743642689803089</v>
+        <v>-0.62463952614670093</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>26.852267811946582</v>
+        <v>-0.67431768009799653</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>22.780756110946839</v>
+        <v>-0.72391831953192776</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>22.18759204072586</v>
+        <v>-0.75482670156142317</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>24.971275802166957</v>
+        <v>-0.78416870866303734</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20.489496602768099</v>
+        <v>-0.80909284463708919</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15.407601774445402</v>
+        <v>-0.84203441613604002</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>21.669642948849599</v>
+        <v>-0.87720262889374168</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>20.464679549610572</v>
+        <v>-0.92458485016181158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>15.381141144089916</v>
+        <v>-0.99880531378964565</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14.933223608930684</v>
+        <v>-1.0458785807566366</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>17.485129207427722</v>
+        <v>-1.076775529995619</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>18.251643251073531</v>
+        <v>-1.1138936622619087</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19.42432415196911</v>
+        <v>-1.1319232851471275</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23.071939141898397</v>
+        <v>-1.1780617904226822</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19.992467188122909</v>
+        <v>-1.2215400184773513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BA9D37-D6B0-465D-9DC6-209841AF69AB}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>6.9732387999703471</v>
+      </c>
+      <c r="C1">
+        <v>43</v>
+      </c>
+      <c r="D1">
+        <v>6.8763448257803859</v>
+      </c>
+      <c r="E1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>6.9732387999703471</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>6.8763448257803859</v>
+      </c>
+      <c r="E2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>7.1011562468595386</v>
+      </c>
+      <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>6.450901950284881</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>7.1011562468595386</v>
+      </c>
+      <c r="C4">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>6.450901950284881</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>7.0002189821776177</v>
+      </c>
+      <c r="C5">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>5.9593752721224185</v>
+      </c>
+      <c r="E5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7.846723642318798</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>5.5337987622615508</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>8.1192025640841479</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>7.6791443225644427</v>
+      </c>
+      <c r="E7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8.8610952165857881</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>4.3072415612664461</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8.8610952165857881</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <v>4.3072415612664461</v>
+      </c>
+      <c r="E9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8.8610952165857881</v>
+      </c>
+      <c r="C10">
+        <v>92</v>
+      </c>
+      <c r="D10">
+        <v>4.3072415612664461</v>
+      </c>
+      <c r="E10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8.8610952165857881</v>
+      </c>
+      <c r="C11">
+        <v>92</v>
+      </c>
+      <c r="D11">
+        <v>4.3072415612664461</v>
+      </c>
+      <c r="E11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8.8610952165857881</v>
+      </c>
+      <c r="C12">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>4.3072415612664461</v>
+      </c>
+      <c r="E12">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9.1309679073400112</v>
+      </c>
+      <c r="C13">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>5.6129139368160219</v>
+      </c>
+      <c r="E13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9.3179972832577036</v>
+      </c>
+      <c r="C14">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>4.9206686717196</v>
+      </c>
+      <c r="E14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C16">
+        <v>91</v>
+      </c>
+      <c r="D16">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E16">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C17">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C19">
+        <v>91</v>
+      </c>
+      <c r="D19">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9.7253079264535334</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>4.2113691114279819</v>
+      </c>
+      <c r="E20">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
